--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_26_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_26_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>117817.3760060431</v>
+        <v>20783822.91867876</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>117817.3760060431</v>
+        <v>20783822.91867876</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3646.821306116412</v>
+        <v>344057.8258904531</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3646.821306116412</v>
+        <v>344057.8258904531</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1035425742.909237</v>
+        <v>42092548.09098218</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7923.716707633199</v>
+        <v>928529.6402016858</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15462.65341489195</v>
+        <v>1775369.910695135</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>22961.64255083037</v>
+        <v>2622210.181188582</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30581.06354566004</v>
+        <v>3471087.537109964</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38270.43321252387</v>
+        <v>4319736.058493494</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>45985.34713852404</v>
+        <v>5168384.57987689</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>53637.09995343203</v>
+        <v>6017033.101260296</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>61269.62502614489</v>
+        <v>6865681.62264368</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>68856.1719053736</v>
+        <v>7714037.088557884</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>76471.09861734275</v>
+        <v>8562431.692867324</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>84109.90749771248</v>
+        <v>9410826.297176566</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>91519.53210891692</v>
+        <v>10257302.2452185</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>98942.05461091315</v>
+        <v>11103994.99923293</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>106607.0078258083</v>
+        <v>11919220.01124325</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>114187.6690667177</v>
+        <v>12737202.10175463</v>
       </c>
     </row>
   </sheetData>
@@ -27040,10 +27040,10 @@
         <v>49.00000000005531</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>361.0000000000259</v>
@@ -27055,10 +27055,10 @@
         <v>48.99999999984306</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>371.0000000000854</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>255</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>91</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
